--- a/medicine/Pharmacie/Olodatérol/Olodatérol.xlsx
+++ b/medicine/Pharmacie/Olodatérol/Olodatérol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olodat%C3%A9rol</t>
+          <t>Olodatérol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Olodatérol, est une molécule utilisée comme médicament dans  la bronchopneumopathie chronique obstructive et vendue sous la marque Striverdi[1].
+Olodatérol, est une molécule utilisée comme médicament dans  la bronchopneumopathie chronique obstructive et vendue sous la marque Striverdi.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Olodat%C3%A9rol</t>
+          <t>Olodatérol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">il s'agit d'un agoniste des récepteurs β-adrénergiques à action prolongée  utilisé pour traiter la maladie pulmonaire obstructive chronique [1]. L'utilisation n'est pas recommandée en cas d'asthme [1]. Il est respiré dans les poumons[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">il s'agit d'un agoniste des récepteurs β-adrénergiques à action prolongée  utilisé pour traiter la maladie pulmonaire obstructive chronique . L'utilisation n'est pas recommandée en cas d'asthme . Il est respiré dans les poumons.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Olodat%C3%A9rol</t>
+          <t>Olodatérol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires du médicament comprennent la toux, la diarrhée, les douleurs articulaires, les éruptions cutanées et l'écoulement nasal; [1] d'autres effets secondaires peuvent inclure un allongement de l'intervalle QT et un bronchospasme [1]. Dans l'asthme, on s'inquiète d'un risque accru de décès[1]. Bien qu'il n'y ait pas de preuve de nocivité pendant la grossesse, cette utilisation n'a pas fait l'objet d'études approfondies [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires du médicament comprennent la toux, la diarrhée, les douleurs articulaires, les éruptions cutanées et l'écoulement nasal;  d'autres effets secondaires peuvent inclure un allongement de l'intervalle QT et un bronchospasme . Dans l'asthme, on s'inquiète d'un risque accru de décès. Bien qu'il n'y ait pas de preuve de nocivité pendant la grossesse, cette utilisation n'a pas fait l'objet d'études approfondies .
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Olodat%C3%A9rol</t>
+          <t>Olodatérol</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament a été approuvé pour un usage médical aux États-Unis en 2014[1]. Il est également disponible en association avec le tiotropium sous forme d'inhalateur unique[1]. Au Royaume-Uni, un mois de médicaments coûte au NHS environ 26 livre sterling à partir de 2021[3]. Aux États-Unis, ce montant coûte environ 230 dollars américains[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament a été approuvé pour un usage médical aux États-Unis en 2014. Il est également disponible en association avec le tiotropium sous forme d'inhalateur unique. Au Royaume-Uni, un mois de médicaments coûte au NHS environ 26 livre sterling à partir de 2021. Aux États-Unis, ce montant coûte environ 230 dollars américains.
 </t>
         </is>
       </c>
